--- a/07-julio/6-portal-cliente/sanchez/SANCHEZ.xlsx
+++ b/07-julio/6-portal-cliente/sanchez/SANCHEZ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\4_SANCHEZ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\07-julio\6-portal-cliente\sanchez\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF706D6-D88D-4446-A166-4C40822C82D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AF14CA-D6D3-4A94-9263-EF6F92AA17E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22380" yWindow="345" windowWidth="20070" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <t>SAC NO REM</t>
   </si>
   <si>
-    <t>JUNIO Y SAC 2025</t>
+    <t>JULIO 2025</t>
   </si>
 </sst>
 </file>
@@ -152,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -179,9 +179,8 @@
     <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,32 +583,32 @@
         <v>8</v>
       </c>
       <c r="B7" s="8">
-        <v>555389.9</v>
+        <v>560012.03</v>
       </c>
       <c r="C7" s="8">
         <v>0</v>
       </c>
       <c r="D7" s="11">
         <f>+B7+C7</f>
-        <v>555389.9</v>
+        <v>560012.03</v>
       </c>
       <c r="E7" s="9">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="F7" s="9">
         <v>0</v>
       </c>
       <c r="G7" s="13">
         <f>+E7+F7</f>
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="H7" s="9">
         <f>+D7+G7</f>
-        <v>575389.9</v>
+        <v>590012.03</v>
       </c>
       <c r="I7" s="9">
         <f>+H7*2</f>
-        <v>1150779.8</v>
+        <v>1180024.06</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
@@ -672,53 +671,13 @@
         <v>1726169.8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-    </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="15"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="D15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="15"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="14"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="D16" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
